--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gdf9-Bmpr1a.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gdf9-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Bmpr1a</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.354994089171382</v>
+        <v>1.581182666666667</v>
       </c>
       <c r="H2">
-        <v>0.354994089171382</v>
+        <v>4.743548</v>
       </c>
       <c r="I2">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="J2">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.52011984882392</v>
+        <v>5.122124666666667</v>
       </c>
       <c r="N2">
-        <v>4.52011984882392</v>
+        <v>15.366374</v>
       </c>
       <c r="O2">
-        <v>0.08853253402303933</v>
+        <v>0.09590749833957242</v>
       </c>
       <c r="P2">
-        <v>0.08853253402303933</v>
+        <v>0.09590749833957242</v>
       </c>
       <c r="Q2">
-        <v>1.604615828678732</v>
+        <v>8.099014739439111</v>
       </c>
       <c r="R2">
-        <v>1.604615828678732</v>
+        <v>72.891132654952</v>
       </c>
       <c r="S2">
-        <v>0.03845801495313211</v>
+        <v>0.02218835503438572</v>
       </c>
       <c r="T2">
-        <v>0.03845801495313211</v>
+        <v>0.02218835503438572</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.354994089171382</v>
+        <v>1.581182666666667</v>
       </c>
       <c r="H3">
-        <v>0.354994089171382</v>
+        <v>4.743548</v>
       </c>
       <c r="I3">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="J3">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>34.1753901033388</v>
+        <v>34.19248466666667</v>
       </c>
       <c r="N3">
-        <v>34.1753901033388</v>
+        <v>102.577454</v>
       </c>
       <c r="O3">
-        <v>0.669370279609227</v>
+        <v>0.6402256641145507</v>
       </c>
       <c r="P3">
-        <v>0.669370279609227</v>
+        <v>0.6402256641145507</v>
       </c>
       <c r="Q3">
-        <v>12.13206148181142</v>
+        <v>54.06456408519911</v>
       </c>
       <c r="R3">
-        <v>12.13206148181142</v>
+        <v>486.5810767667919</v>
       </c>
       <c r="S3">
-        <v>0.2907705343178669</v>
+        <v>0.1481172440469931</v>
       </c>
       <c r="T3">
-        <v>0.2907705343178669</v>
+        <v>0.1481172440469931</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.354994089171382</v>
+        <v>1.581182666666667</v>
       </c>
       <c r="H4">
-        <v>0.354994089171382</v>
+        <v>4.743548</v>
       </c>
       <c r="I4">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="J4">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.28650399062274</v>
+        <v>0.5566749999999999</v>
       </c>
       <c r="N4">
-        <v>1.28650399062274</v>
+        <v>1.670025</v>
       </c>
       <c r="O4">
-        <v>0.02519788459817461</v>
+        <v>0.01042327356567948</v>
       </c>
       <c r="P4">
-        <v>0.02519788459817461</v>
+        <v>0.01042327356567948</v>
       </c>
       <c r="Q4">
-        <v>0.4567013123664677</v>
+        <v>0.8802048609666665</v>
       </c>
       <c r="R4">
-        <v>0.4567013123664677</v>
+        <v>7.921843748699999</v>
       </c>
       <c r="S4">
-        <v>0.01094581368710978</v>
+        <v>0.002411441216795843</v>
       </c>
       <c r="T4">
-        <v>0.01094581368710978</v>
+        <v>0.002411441216795843</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.354994089171382</v>
+        <v>1.581182666666667</v>
       </c>
       <c r="H5">
-        <v>0.354994089171382</v>
+        <v>4.743548</v>
       </c>
       <c r="I5">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="J5">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.074017590748</v>
+        <v>1.480867666666667</v>
       </c>
       <c r="N5">
-        <v>11.074017590748</v>
+        <v>4.442603</v>
       </c>
       <c r="O5">
-        <v>0.2168993017695591</v>
+        <v>0.02772800791168297</v>
       </c>
       <c r="P5">
-        <v>0.2168993017695591</v>
+        <v>0.02772800791168297</v>
       </c>
       <c r="Q5">
-        <v>3.931210788095448</v>
+        <v>2.341522286160445</v>
       </c>
       <c r="R5">
-        <v>3.931210788095448</v>
+        <v>21.073700575444</v>
       </c>
       <c r="S5">
-        <v>0.09421978804545297</v>
+        <v>0.006414919527588428</v>
       </c>
       <c r="T5">
-        <v>0.09421978804545297</v>
+        <v>0.006414919527588429</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.462222460248666</v>
+        <v>1.581182666666667</v>
       </c>
       <c r="H6">
-        <v>0.462222460248666</v>
+        <v>4.743548</v>
       </c>
       <c r="I6">
-        <v>0.5656058489964383</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="J6">
-        <v>0.5656058489964383</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.52011984882392</v>
+        <v>12.054774</v>
       </c>
       <c r="N6">
-        <v>4.52011984882392</v>
+        <v>36.164322</v>
       </c>
       <c r="O6">
-        <v>0.08853253402303933</v>
+        <v>0.2257155560685144</v>
       </c>
       <c r="P6">
-        <v>0.08853253402303933</v>
+        <v>0.2257155560685144</v>
       </c>
       <c r="Q6">
-        <v>2.089300917142221</v>
+        <v>19.060799699384</v>
       </c>
       <c r="R6">
-        <v>2.089300917142221</v>
+        <v>171.547197294456</v>
       </c>
       <c r="S6">
-        <v>0.05007451906990722</v>
+        <v>0.05221965937532473</v>
       </c>
       <c r="T6">
-        <v>0.05007451906990722</v>
+        <v>0.05221965937532473</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.462222460248666</v>
+        <v>4.376645666666667</v>
       </c>
       <c r="H7">
-        <v>0.462222460248666</v>
+        <v>13.129937</v>
       </c>
       <c r="I7">
-        <v>0.5656058489964383</v>
+        <v>0.6403713391238527</v>
       </c>
       <c r="J7">
-        <v>0.5656058489964383</v>
+        <v>0.6403713391238528</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>34.1753901033388</v>
+        <v>5.122124666666667</v>
       </c>
       <c r="N7">
-        <v>34.1753901033388</v>
+        <v>15.366374</v>
       </c>
       <c r="O7">
-        <v>0.669370279609227</v>
+        <v>0.09590749833957242</v>
       </c>
       <c r="P7">
-        <v>0.669370279609227</v>
+        <v>0.09590749833957242</v>
       </c>
       <c r="Q7">
-        <v>15.79663289352317</v>
+        <v>22.41772472649311</v>
       </c>
       <c r="R7">
-        <v>15.79663289352317</v>
+        <v>201.759522538438</v>
       </c>
       <c r="S7">
-        <v>0.3785997452913601</v>
+        <v>0.06141641314373067</v>
       </c>
       <c r="T7">
-        <v>0.3785997452913601</v>
+        <v>0.06141641314373068</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.462222460248666</v>
+        <v>4.376645666666667</v>
       </c>
       <c r="H8">
-        <v>0.462222460248666</v>
+        <v>13.129937</v>
       </c>
       <c r="I8">
-        <v>0.5656058489964383</v>
+        <v>0.6403713391238527</v>
       </c>
       <c r="J8">
-        <v>0.5656058489964383</v>
+        <v>0.6403713391238528</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.28650399062274</v>
+        <v>34.19248466666667</v>
       </c>
       <c r="N8">
-        <v>1.28650399062274</v>
+        <v>102.577454</v>
       </c>
       <c r="O8">
-        <v>0.02519788459817461</v>
+        <v>0.6402256641145507</v>
       </c>
       <c r="P8">
-        <v>0.02519788459817461</v>
+        <v>0.6402256641145507</v>
       </c>
       <c r="Q8">
-        <v>0.5946510396653696</v>
+        <v>149.6483898489331</v>
       </c>
       <c r="R8">
-        <v>0.5946510396653696</v>
+        <v>1346.835508640398</v>
       </c>
       <c r="S8">
-        <v>0.01425207091106483</v>
+        <v>0.4099821658704928</v>
       </c>
       <c r="T8">
-        <v>0.01425207091106483</v>
+        <v>0.4099821658704929</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,805 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>4.376645666666667</v>
+      </c>
+      <c r="H9">
+        <v>13.129937</v>
+      </c>
+      <c r="I9">
+        <v>0.6403713391238527</v>
+      </c>
+      <c r="J9">
+        <v>0.6403713391238528</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.5566749999999999</v>
+      </c>
+      <c r="N9">
+        <v>1.670025</v>
+      </c>
+      <c r="O9">
+        <v>0.01042327356567948</v>
+      </c>
+      <c r="P9">
+        <v>0.01042327356567948</v>
+      </c>
+      <c r="Q9">
+        <v>2.436369226491666</v>
+      </c>
+      <c r="R9">
+        <v>21.927323038425</v>
+      </c>
+      <c r="S9">
+        <v>0.00667476565130842</v>
+      </c>
+      <c r="T9">
+        <v>0.006674765651308423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>4.376645666666667</v>
+      </c>
+      <c r="H10">
+        <v>13.129937</v>
+      </c>
+      <c r="I10">
+        <v>0.6403713391238527</v>
+      </c>
+      <c r="J10">
+        <v>0.6403713391238528</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.480867666666667</v>
+      </c>
+      <c r="N10">
+        <v>4.442603</v>
+      </c>
+      <c r="O10">
+        <v>0.02772800791168297</v>
+      </c>
+      <c r="P10">
+        <v>0.02772800791168297</v>
+      </c>
+      <c r="Q10">
+        <v>6.481233056223444</v>
+      </c>
+      <c r="R10">
+        <v>58.331097506011</v>
+      </c>
+      <c r="S10">
+        <v>0.0177562215576412</v>
+      </c>
+      <c r="T10">
+        <v>0.01775622155764121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>4.376645666666667</v>
+      </c>
+      <c r="H11">
+        <v>13.129937</v>
+      </c>
+      <c r="I11">
+        <v>0.6403713391238527</v>
+      </c>
+      <c r="J11">
+        <v>0.6403713391238528</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>12.054774</v>
+      </c>
+      <c r="N11">
+        <v>36.164322</v>
+      </c>
+      <c r="O11">
+        <v>0.2257155560685144</v>
+      </c>
+      <c r="P11">
+        <v>0.2257155560685144</v>
+      </c>
+      <c r="Q11">
+        <v>52.759474389746</v>
+      </c>
+      <c r="R11">
+        <v>474.835269507714</v>
+      </c>
+      <c r="S11">
+        <v>0.1445417729006796</v>
+      </c>
+      <c r="T11">
+        <v>0.1445417729006797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.3807653333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.142296</v>
+      </c>
+      <c r="I12">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="J12">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>5.122124666666667</v>
+      </c>
+      <c r="N12">
+        <v>15.366374</v>
+      </c>
+      <c r="O12">
+        <v>0.09590749833957242</v>
+      </c>
+      <c r="P12">
+        <v>0.09590749833957242</v>
+      </c>
+      <c r="Q12">
+        <v>1.950327506078222</v>
+      </c>
+      <c r="R12">
+        <v>17.552947554704</v>
+      </c>
+      <c r="S12">
+        <v>0.005343188095147065</v>
+      </c>
+      <c r="T12">
+        <v>0.005343188095147065</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.462222460248666</v>
-      </c>
-      <c r="H9">
-        <v>0.462222460248666</v>
-      </c>
-      <c r="I9">
-        <v>0.5656058489964383</v>
-      </c>
-      <c r="J9">
-        <v>0.5656058489964383</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>11.074017590748</v>
-      </c>
-      <c r="N9">
-        <v>11.074017590748</v>
-      </c>
-      <c r="O9">
-        <v>0.2168993017695591</v>
-      </c>
-      <c r="P9">
-        <v>0.2168993017695591</v>
-      </c>
-      <c r="Q9">
-        <v>5.118659655632545</v>
-      </c>
-      <c r="R9">
-        <v>5.118659655632545</v>
-      </c>
-      <c r="S9">
-        <v>0.1226795137241062</v>
-      </c>
-      <c r="T9">
-        <v>0.1226795137241062</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3807653333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.142296</v>
+      </c>
+      <c r="I13">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="J13">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>34.19248466666667</v>
+      </c>
+      <c r="N13">
+        <v>102.577454</v>
+      </c>
+      <c r="O13">
+        <v>0.6402256641145507</v>
+      </c>
+      <c r="P13">
+        <v>0.6402256641145507</v>
+      </c>
+      <c r="Q13">
+        <v>13.01931282159822</v>
+      </c>
+      <c r="R13">
+        <v>117.173815394384</v>
+      </c>
+      <c r="S13">
+        <v>0.03566818242503376</v>
+      </c>
+      <c r="T13">
+        <v>0.03566818242503376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3807653333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.142296</v>
+      </c>
+      <c r="I14">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="J14">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.5566749999999999</v>
+      </c>
+      <c r="N14">
+        <v>1.670025</v>
+      </c>
+      <c r="O14">
+        <v>0.01042327356567948</v>
+      </c>
+      <c r="P14">
+        <v>0.01042327356567948</v>
+      </c>
+      <c r="Q14">
+        <v>0.2119625419333333</v>
+      </c>
+      <c r="R14">
+        <v>1.9076628774</v>
+      </c>
+      <c r="S14">
+        <v>0.0005807002809249583</v>
+      </c>
+      <c r="T14">
+        <v>0.0005807002809249584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3807653333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.142296</v>
+      </c>
+      <c r="I15">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="J15">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.480867666666667</v>
+      </c>
+      <c r="N15">
+        <v>4.442603</v>
+      </c>
+      <c r="O15">
+        <v>0.02772800791168297</v>
+      </c>
+      <c r="P15">
+        <v>0.02772800791168297</v>
+      </c>
+      <c r="Q15">
+        <v>0.5638630707208889</v>
+      </c>
+      <c r="R15">
+        <v>5.074767636488</v>
+      </c>
+      <c r="S15">
+        <v>0.001544779754876761</v>
+      </c>
+      <c r="T15">
+        <v>0.001544779754876761</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3807653333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.142296</v>
+      </c>
+      <c r="I16">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="J16">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>12.054774</v>
+      </c>
+      <c r="N16">
+        <v>36.164322</v>
+      </c>
+      <c r="O16">
+        <v>0.2257155560685144</v>
+      </c>
+      <c r="P16">
+        <v>0.2257155560685144</v>
+      </c>
+      <c r="Q16">
+        <v>4.590040040368</v>
+      </c>
+      <c r="R16">
+        <v>41.310360363312</v>
+      </c>
+      <c r="S16">
+        <v>0.01257504046038871</v>
+      </c>
+      <c r="T16">
+        <v>0.01257504046038871</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4959496666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.487849</v>
+      </c>
+      <c r="I17">
+        <v>0.07256515065868824</v>
+      </c>
+      <c r="J17">
+        <v>0.07256515065868825</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.122124666666667</v>
+      </c>
+      <c r="N17">
+        <v>15.366374</v>
+      </c>
+      <c r="O17">
+        <v>0.09590749833957242</v>
+      </c>
+      <c r="P17">
+        <v>0.09590749833957242</v>
+      </c>
+      <c r="Q17">
+        <v>2.540316021058445</v>
+      </c>
+      <c r="R17">
+        <v>22.862844189526</v>
+      </c>
+      <c r="S17">
+        <v>0.006959542066308964</v>
+      </c>
+      <c r="T17">
+        <v>0.006959542066308966</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4959496666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.487849</v>
+      </c>
+      <c r="I18">
+        <v>0.07256515065868824</v>
+      </c>
+      <c r="J18">
+        <v>0.07256515065868825</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>34.19248466666667</v>
+      </c>
+      <c r="N18">
+        <v>102.577454</v>
+      </c>
+      <c r="O18">
+        <v>0.6402256641145507</v>
+      </c>
+      <c r="P18">
+        <v>0.6402256641145507</v>
+      </c>
+      <c r="Q18">
+        <v>16.95775137293844</v>
+      </c>
+      <c r="R18">
+        <v>152.619762356446</v>
+      </c>
+      <c r="S18">
+        <v>0.0464580717720311</v>
+      </c>
+      <c r="T18">
+        <v>0.04645807177203112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4959496666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.487849</v>
+      </c>
+      <c r="I19">
+        <v>0.07256515065868824</v>
+      </c>
+      <c r="J19">
+        <v>0.07256515065868825</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.5566749999999999</v>
+      </c>
+      <c r="N19">
+        <v>1.670025</v>
+      </c>
+      <c r="O19">
+        <v>0.01042327356567948</v>
+      </c>
+      <c r="P19">
+        <v>0.01042327356567948</v>
+      </c>
+      <c r="Q19">
+        <v>0.2760827806916666</v>
+      </c>
+      <c r="R19">
+        <v>2.484745026225</v>
+      </c>
+      <c r="S19">
+        <v>0.0007563664166502538</v>
+      </c>
+      <c r="T19">
+        <v>0.000756366416650254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4959496666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.487849</v>
+      </c>
+      <c r="I20">
+        <v>0.07256515065868824</v>
+      </c>
+      <c r="J20">
+        <v>0.07256515065868825</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.480867666666667</v>
+      </c>
+      <c r="N20">
+        <v>4.442603</v>
+      </c>
+      <c r="O20">
+        <v>0.02772800791168297</v>
+      </c>
+      <c r="P20">
+        <v>0.02772800791168297</v>
+      </c>
+      <c r="Q20">
+        <v>0.7344358256607778</v>
+      </c>
+      <c r="R20">
+        <v>6.609922430947</v>
+      </c>
+      <c r="S20">
+        <v>0.002012087071576574</v>
+      </c>
+      <c r="T20">
+        <v>0.002012087071576574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4959496666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.487849</v>
+      </c>
+      <c r="I21">
+        <v>0.07256515065868824</v>
+      </c>
+      <c r="J21">
+        <v>0.07256515065868825</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>12.054774</v>
+      </c>
+      <c r="N21">
+        <v>36.164322</v>
+      </c>
+      <c r="O21">
+        <v>0.2257155560685144</v>
+      </c>
+      <c r="P21">
+        <v>0.2257155560685144</v>
+      </c>
+      <c r="Q21">
+        <v>5.978561147042</v>
+      </c>
+      <c r="R21">
+        <v>53.807050323378</v>
+      </c>
+      <c r="S21">
+        <v>0.01637908333212134</v>
+      </c>
+      <c r="T21">
+        <v>0.01637908333212134</v>
       </c>
     </row>
   </sheetData>
